--- a/region2017_30X30/difference caclulations.xlsx
+++ b/region2017_30X30/difference caclulations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="2715" windowWidth="26595" windowHeight="11160"/>
+    <workbookView xWindow="420" yWindow="825" windowWidth="26595" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="41">
   <si>
     <t>goal</t>
   </si>
@@ -105,19 +105,40 @@
     <t>dif</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Future</t>
   </si>
   <si>
-    <t>RE</t>
+    <t>Componet</t>
   </si>
   <si>
-    <t>Componet</t>
+    <t>Tourism</t>
+  </si>
+  <si>
+    <t>Lasting Special Places</t>
+  </si>
+  <si>
+    <t>Livelihoods</t>
+  </si>
+  <si>
+    <t>Economies</t>
+  </si>
+  <si>
+    <t>Carbon Storage</t>
+  </si>
+  <si>
+    <t>Coastal Protection</t>
+  </si>
+  <si>
+    <t>Biodiversity</t>
+  </si>
+  <si>
+    <t>Artisanal Fishing</t>
+  </si>
+  <si>
+    <t>Recreation</t>
   </si>
 </sst>
 </file>
@@ -209,39 +230,30 @@
             <c:strRef>
               <c:f>Sheet1!$M$2:$M$15</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Score</c:v>
+                  <c:v>Index</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AO</c:v>
+                  <c:v>Artisanal Fishing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BD</c:v>
+                  <c:v>Biodiversity</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CP</c:v>
+                  <c:v>Coastal Protection</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>CS</c:v>
+                  <c:v>Economies</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>LE</c:v>
+                  <c:v>Lasting Special Places</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ECO</c:v>
+                  <c:v>Recreation</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>LIV</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>LSP</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>RE</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>TR</c:v>
+                  <c:v>Tourism</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -251,9 +263,9 @@
               <c:f>Sheet1!$N$2:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.5499999999999972</c:v>
+                  <c:v>5.5099999999999909</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.48999999999999488</c:v>
@@ -265,25 +277,16 @@
                   <c:v>0.71000000000000796</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12</c:v>
+                  <c:v>29.949999999999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25</c:v>
+                  <c:v>1.7600000000000051</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29.949999999999989</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7600000000000051</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.029999999999987</c:v>
+                  <c:v>10.769999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -298,11 +301,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="183366400"/>
-        <c:axId val="183367936"/>
+        <c:axId val="189258752"/>
+        <c:axId val="207168256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183366400"/>
+        <c:axId val="189258752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,7 +314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183367936"/>
+        <c:crossAx val="207168256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -319,7 +322,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183367936"/>
+        <c:axId val="207168256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,7 +352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183366400"/>
+        <c:crossAx val="189258752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -703,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="I277" sqref="I277"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,13 +741,13 @@
         <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
         <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -777,13 +780,13 @@
         <v>0.96999999999999886</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N2">
-        <v>5.5499999999999972</v>
+        <v>5.5099999999999909</v>
       </c>
       <c r="O2">
-        <v>6</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -816,7 +819,7 @@
         <v>0.70000000000000284</v>
       </c>
       <c r="M3" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="N3">
         <v>0.48999999999999488</v>
@@ -855,7 +858,7 @@
         <v>0.65000000000000568</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="N4">
         <v>0.32000000000000739</v>
@@ -966,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>0.71000000000000796</v>
@@ -975,7 +978,7 @@
         <v>1.4199999999999875</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1014,7 +1017,7 @@
         <v>0.50999999999999091</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1043,9 +1046,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
       <c r="N9">
         <v>0.12</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>0.25</v>
@@ -1092,7 +1092,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>7.3800000000000097</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>7.2900000000000063</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>29.949999999999989</v>
@@ -1239,7 +1239,7 @@
         <v>9.3500000000000014</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1.7600000000000051</v>
@@ -1275,10 +1275,10 @@
         <v>0.48999999999999488</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N15">
-        <v>11.029999999999987</v>
+        <v>10.769999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>71.459999999999994</v>
+        <v>69.430000000000007</v>
       </c>
       <c r="F272" t="s">
         <v>19</v>
@@ -8546,11 +8546,11 @@
         <v>0</v>
       </c>
       <c r="I272">
-        <v>77.400000000000006</v>
+        <v>75.31</v>
       </c>
       <c r="J272">
         <f t="shared" si="4"/>
-        <v>5.9400000000000119</v>
+        <v>5.8799999999999955</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -8564,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>79.08</v>
+        <v>76.83</v>
       </c>
       <c r="F273" t="s">
         <v>19</v>
@@ -8576,11 +8576,11 @@
         <v>1</v>
       </c>
       <c r="I273">
-        <v>81.55</v>
+        <v>79.23</v>
       </c>
       <c r="J273">
         <f t="shared" si="4"/>
-        <v>2.4699999999999989</v>
+        <v>2.4000000000000057</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -8594,7 +8594,7 @@
         <v>2</v>
       </c>
       <c r="D274">
-        <v>73.94</v>
+        <v>71.680000000000007</v>
       </c>
       <c r="F274" t="s">
         <v>19</v>
@@ -8606,11 +8606,11 @@
         <v>2</v>
       </c>
       <c r="I274">
-        <v>76.75</v>
+        <v>74.430000000000007</v>
       </c>
       <c r="J274">
         <f t="shared" si="4"/>
-        <v>2.8100000000000023</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -8624,7 +8624,7 @@
         <v>3</v>
       </c>
       <c r="D275">
-        <v>65.59</v>
+        <v>63.77</v>
       </c>
       <c r="F275" t="s">
         <v>19</v>
@@ -8636,11 +8636,11 @@
         <v>3</v>
       </c>
       <c r="I275">
-        <v>74.11</v>
+        <v>72.22</v>
       </c>
       <c r="J275">
         <f t="shared" si="4"/>
-        <v>8.519999999999996</v>
+        <v>8.4499999999999957</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -8654,7 +8654,7 @@
         <v>4</v>
       </c>
       <c r="D276">
-        <v>67.239999999999995</v>
+        <v>65.45</v>
       </c>
       <c r="F276" t="s">
         <v>19</v>
@@ -8666,11 +8666,11 @@
         <v>4</v>
       </c>
       <c r="I276">
-        <v>77.209999999999994</v>
+        <v>75.349999999999994</v>
       </c>
       <c r="J276">
         <f t="shared" si="4"/>
-        <v>9.9699999999999989</v>
+        <v>9.8999999999999915</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -8684,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="D277">
-        <v>69.040000000000006</v>
+        <v>67.09</v>
       </c>
       <c r="F277" t="s">
         <v>19</v>
@@ -8696,11 +8696,11 @@
         <v>0</v>
       </c>
       <c r="I277">
-        <v>74.59</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="J277">
         <f t="shared" si="4"/>
-        <v>5.5499999999999972</v>
+        <v>5.5099999999999909</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -8714,7 +8714,7 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>75.680000000000007</v>
+        <v>73.52</v>
       </c>
       <c r="F278" t="s">
         <v>19</v>
@@ -8726,11 +8726,11 @@
         <v>1</v>
       </c>
       <c r="I278">
-        <v>78.28</v>
+        <v>76.09</v>
       </c>
       <c r="J278">
         <f t="shared" si="4"/>
-        <v>2.5999999999999943</v>
+        <v>2.5700000000000074</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -8744,7 +8744,7 @@
         <v>2</v>
       </c>
       <c r="D279">
-        <v>71.680000000000007</v>
+        <v>69.52</v>
       </c>
       <c r="F279" t="s">
         <v>19</v>
@@ -8756,11 +8756,11 @@
         <v>2</v>
       </c>
       <c r="I279">
-        <v>75.59</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="J279">
         <f t="shared" si="4"/>
-        <v>3.9099999999999966</v>
+        <v>3.8800000000000097</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -8774,7 +8774,7 @@
         <v>3</v>
       </c>
       <c r="D280">
-        <v>63.62</v>
+        <v>61.84</v>
       </c>
       <c r="F280" t="s">
         <v>19</v>
@@ -8786,11 +8786,11 @@
         <v>3</v>
       </c>
       <c r="I280">
-        <v>70.97</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="J280">
         <f t="shared" si="4"/>
-        <v>7.3500000000000014</v>
+        <v>7.3100000000000023</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -8804,7 +8804,7 @@
         <v>4</v>
       </c>
       <c r="D281">
-        <v>65.19</v>
+        <v>63.47</v>
       </c>
       <c r="F281" t="s">
         <v>19</v>
@@ -8816,11 +8816,11 @@
         <v>4</v>
       </c>
       <c r="I281">
-        <v>73.53</v>
+        <v>71.77</v>
       </c>
       <c r="J281">
         <f t="shared" si="4"/>
-        <v>8.3400000000000034</v>
+        <v>8.2999999999999972</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -10811,7 +10811,7 @@
         <v>94.13</v>
       </c>
       <c r="J349">
-        <f t="shared" si="5"/>
+        <f>I349-D349</f>
         <v>29.949999999999989</v>
       </c>
     </row>
@@ -14408,7 +14408,7 @@
         <v>0</v>
       </c>
       <c r="D471">
-        <v>63.4</v>
+        <v>47.17</v>
       </c>
       <c r="F471" t="s">
         <v>27</v>
@@ -14420,11 +14420,11 @@
         <v>0</v>
       </c>
       <c r="I471">
-        <v>76.08</v>
+        <v>59.32</v>
       </c>
       <c r="J471">
         <f t="shared" si="7"/>
-        <v>12.68</v>
+        <v>12.149999999999999</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
@@ -14438,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="D472">
-        <v>67.040000000000006</v>
+        <v>49.08</v>
       </c>
       <c r="F472" t="s">
         <v>27</v>
@@ -14450,11 +14450,11 @@
         <v>1</v>
       </c>
       <c r="I472">
-        <v>79.900000000000006</v>
+        <v>61.33</v>
       </c>
       <c r="J472">
         <f t="shared" si="7"/>
-        <v>12.86</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
@@ -14468,7 +14468,7 @@
         <v>2</v>
       </c>
       <c r="D473">
-        <v>70.52</v>
+        <v>52.43</v>
       </c>
       <c r="F473" t="s">
         <v>27</v>
@@ -14480,11 +14480,11 @@
         <v>2</v>
       </c>
       <c r="I473">
-        <v>82.76</v>
+        <v>64.239999999999995</v>
       </c>
       <c r="J473">
         <f t="shared" si="7"/>
-        <v>12.240000000000009</v>
+        <v>11.809999999999995</v>
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.25">
@@ -14498,7 +14498,7 @@
         <v>3</v>
       </c>
       <c r="D474">
-        <v>56.24</v>
+        <v>41.7</v>
       </c>
       <c r="F474" t="s">
         <v>27</v>
@@ -14510,11 +14510,11 @@
         <v>3</v>
       </c>
       <c r="I474">
-        <v>68.58</v>
+        <v>53.47</v>
       </c>
       <c r="J474">
         <f t="shared" si="7"/>
-        <v>12.339999999999996</v>
+        <v>11.769999999999996</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
@@ -14528,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D475">
-        <v>59.79</v>
+        <v>45.47</v>
       </c>
       <c r="F475" t="s">
         <v>27</v>
@@ -14540,11 +14540,11 @@
         <v>4</v>
       </c>
       <c r="I475">
-        <v>73.09</v>
+        <v>58.23</v>
       </c>
       <c r="J475">
         <f t="shared" si="7"/>
-        <v>13.300000000000004</v>
+        <v>12.759999999999998</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
@@ -14798,7 +14798,7 @@
         <v>0</v>
       </c>
       <c r="D484">
-        <v>66.790000000000006</v>
+        <v>51.14</v>
       </c>
       <c r="F484" t="s">
         <v>27</v>
@@ -14810,11 +14810,11 @@
         <v>0</v>
       </c>
       <c r="I484">
-        <v>77.819999999999993</v>
+        <v>61.91</v>
       </c>
       <c r="J484">
         <f t="shared" si="7"/>
-        <v>11.029999999999987</v>
+        <v>10.769999999999996</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -14828,7 +14828,7 @@
         <v>1</v>
       </c>
       <c r="D485">
-        <v>69.47</v>
+        <v>52.19</v>
       </c>
       <c r="F485" t="s">
         <v>27</v>
@@ -14840,11 +14840,11 @@
         <v>1</v>
       </c>
       <c r="I485">
-        <v>80.599999999999994</v>
+        <v>63.01</v>
       </c>
       <c r="J485">
         <f t="shared" si="7"/>
-        <v>11.129999999999995</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
@@ -14858,7 +14858,7 @@
         <v>2</v>
       </c>
       <c r="D486">
-        <v>72.56</v>
+        <v>55.27</v>
       </c>
       <c r="F486" t="s">
         <v>27</v>
@@ -14870,11 +14870,11 @@
         <v>2</v>
       </c>
       <c r="I486">
-        <v>83.38</v>
+        <v>65.87</v>
       </c>
       <c r="J486">
         <f t="shared" si="7"/>
-        <v>10.819999999999993</v>
+        <v>10.600000000000001</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
@@ -14888,7 +14888,7 @@
         <v>3</v>
       </c>
       <c r="D487">
-        <v>60.97</v>
+        <v>46.75</v>
       </c>
       <c r="F487" t="s">
         <v>27</v>
@@ -14900,11 +14900,11 @@
         <v>3</v>
       </c>
       <c r="I487">
-        <v>71.84</v>
+        <v>57.34</v>
       </c>
       <c r="J487">
         <f t="shared" si="7"/>
-        <v>10.870000000000005</v>
+        <v>10.590000000000003</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
@@ -14918,7 +14918,7 @@
         <v>4</v>
       </c>
       <c r="D488">
-        <v>64.150000000000006</v>
+        <v>50.33</v>
       </c>
       <c r="F488" t="s">
         <v>27</v>
@@ -14930,11 +14930,11 @@
         <v>4</v>
       </c>
       <c r="I488">
-        <v>75.45</v>
+        <v>61.41</v>
       </c>
       <c r="J488">
         <f t="shared" si="7"/>
-        <v>11.299999999999997</v>
+        <v>11.079999999999998</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
@@ -14948,7 +14948,7 @@
         <v>0</v>
       </c>
       <c r="D489">
-        <v>70.17</v>
+        <v>55.1</v>
       </c>
       <c r="F489" t="s">
         <v>27</v>
@@ -14960,11 +14960,11 @@
         <v>0</v>
       </c>
       <c r="I489">
-        <v>79.55</v>
+        <v>64.5</v>
       </c>
       <c r="J489">
         <f t="shared" si="7"/>
-        <v>9.3799999999999955</v>
+        <v>9.3999999999999986</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -14978,7 +14978,7 @@
         <v>1</v>
       </c>
       <c r="D490">
-        <v>71.900000000000006</v>
+        <v>55.3</v>
       </c>
       <c r="F490" t="s">
         <v>27</v>
@@ -14990,11 +14990,11 @@
         <v>1</v>
       </c>
       <c r="I490">
-        <v>81.3</v>
+        <v>64.7</v>
       </c>
       <c r="J490">
         <f t="shared" si="7"/>
-        <v>9.3999999999999915</v>
+        <v>9.4000000000000057</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
@@ -15008,7 +15008,7 @@
         <v>2</v>
       </c>
       <c r="D491">
-        <v>74.599999999999994</v>
+        <v>58.1</v>
       </c>
       <c r="F491" t="s">
         <v>27</v>
@@ -15020,11 +15020,11 @@
         <v>2</v>
       </c>
       <c r="I491">
-        <v>84</v>
+        <v>67.5</v>
       </c>
       <c r="J491">
         <f t="shared" si="7"/>
-        <v>9.4000000000000057</v>
+        <v>9.3999999999999986</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
@@ -15038,7 +15038,7 @@
         <v>3</v>
       </c>
       <c r="D492">
-        <v>65.7</v>
+        <v>51.8</v>
       </c>
       <c r="F492" t="s">
         <v>27</v>
@@ -15050,11 +15050,11 @@
         <v>3</v>
       </c>
       <c r="I492">
-        <v>75.099999999999994</v>
+        <v>61.2</v>
       </c>
       <c r="J492">
         <f t="shared" si="7"/>
-        <v>9.3999999999999915</v>
+        <v>9.4000000000000057</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
@@ -15068,7 +15068,7 @@
         <v>4</v>
       </c>
       <c r="D493">
-        <v>68.5</v>
+        <v>55.2</v>
       </c>
       <c r="F493" t="s">
         <v>27</v>
@@ -15080,11 +15080,11 @@
         <v>4</v>
       </c>
       <c r="I493">
-        <v>77.8</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="J493">
         <f t="shared" si="7"/>
-        <v>9.2999999999999972</v>
+        <v>9.3999999999999915</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -15098,7 +15098,7 @@
         <v>1</v>
       </c>
       <c r="D494">
-        <v>-0.25</v>
+        <v>-0.32</v>
       </c>
       <c r="F494" t="s">
         <v>27</v>
@@ -15110,11 +15110,11 @@
         <v>1</v>
       </c>
       <c r="I494">
-        <v>-0.23</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="J494">
         <f t="shared" si="7"/>
-        <v>1.999999999999999E-2</v>
+        <v>3.999999999999998E-2</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
@@ -15128,7 +15128,7 @@
         <v>2</v>
       </c>
       <c r="D495">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
       <c r="F495" t="s">
         <v>27</v>
@@ -15140,11 +15140,11 @@
         <v>2</v>
       </c>
       <c r="I495">
-        <v>-0.22</v>
+        <v>-0.27</v>
       </c>
       <c r="J495">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>3.999999999999998E-2</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
@@ -15158,7 +15158,7 @@
         <v>3</v>
       </c>
       <c r="D496">
-        <v>-0.35</v>
+        <v>-0.42</v>
       </c>
       <c r="F496" t="s">
         <v>27</v>
@@ -15170,11 +15170,11 @@
         <v>3</v>
       </c>
       <c r="I496">
-        <v>-0.31</v>
+        <v>-0.37</v>
       </c>
       <c r="J496">
         <f t="shared" si="7"/>
-        <v>3.999999999999998E-2</v>
+        <v>4.9999999999999989E-2</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
@@ -15188,7 +15188,7 @@
         <v>4</v>
       </c>
       <c r="D497">
-        <v>-0.35</v>
+        <v>-0.42</v>
       </c>
       <c r="F497" t="s">
         <v>27</v>
@@ -15200,11 +15200,11 @@
         <v>4</v>
       </c>
       <c r="I497">
-        <v>-0.31</v>
+        <v>-0.37</v>
       </c>
       <c r="J497">
         <f t="shared" si="7"/>
-        <v>3.999999999999998E-2</v>
+        <v>4.9999999999999989E-2</v>
       </c>
     </row>
   </sheetData>
